--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8561,16 +8561,16 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>7737106000000</v>
+        <v>7710432000000</v>
       </c>
       <c r="D325" t="n">
-        <v>7737106000000</v>
+        <v>7710432000000</v>
       </c>
       <c r="E325" t="n">
-        <v>7737106000000</v>
+        <v>7710432000000</v>
       </c>
       <c r="F325" t="n">
-        <v>7737106000000</v>
+        <v>7710432000000</v>
       </c>
       <c r="G325" t="n">
         <v>0</v>
@@ -8586,18 +8586,93 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>7823812000000</v>
+        <v>7822810000000</v>
       </c>
       <c r="D326" t="n">
-        <v>7823812000000</v>
+        <v>7822810000000</v>
       </c>
       <c r="E326" t="n">
-        <v>7823812000000</v>
+        <v>7822810000000</v>
       </c>
       <c r="F326" t="n">
-        <v>7823812000000</v>
+        <v>7822810000000</v>
       </c>
       <c r="G326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>ECONOMICS:EGM2</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>7965088000000</v>
+      </c>
+      <c r="D327" t="n">
+        <v>7965088000000</v>
+      </c>
+      <c r="E327" t="n">
+        <v>7965088000000</v>
+      </c>
+      <c r="F327" t="n">
+        <v>7965088000000</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>ECONOMICS:EGM2</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>8069151000000</v>
+      </c>
+      <c r="D328" t="n">
+        <v>8069151000000</v>
+      </c>
+      <c r="E328" t="n">
+        <v>8069151000000</v>
+      </c>
+      <c r="F328" t="n">
+        <v>8069151000000</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>ECONOMICS:EGM2</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>8140535000000</v>
+      </c>
+      <c r="D329" t="n">
+        <v>8140535000000</v>
+      </c>
+      <c r="E329" t="n">
+        <v>8140535000000</v>
+      </c>
+      <c r="F329" t="n">
+        <v>8140535000000</v>
+      </c>
+      <c r="G329" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G329"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8386,16 +8386,16 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6611593000000</v>
+        <v>6614488000000</v>
       </c>
       <c r="D318" t="n">
-        <v>6611593000000</v>
+        <v>6614488000000</v>
       </c>
       <c r="E318" t="n">
-        <v>6611593000000</v>
+        <v>6614488000000</v>
       </c>
       <c r="F318" t="n">
-        <v>6611593000000</v>
+        <v>6614488000000</v>
       </c>
       <c r="G318" t="n">
         <v>0</v>
@@ -8411,16 +8411,16 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>6708585000000</v>
+        <v>6708871000000</v>
       </c>
       <c r="D319" t="n">
-        <v>6708585000000</v>
+        <v>6708871000000</v>
       </c>
       <c r="E319" t="n">
-        <v>6708585000000</v>
+        <v>6708871000000</v>
       </c>
       <c r="F319" t="n">
-        <v>6708585000000</v>
+        <v>6708871000000</v>
       </c>
       <c r="G319" t="n">
         <v>0</v>
@@ -8436,16 +8436,16 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6808379000000</v>
+        <v>6808405000000</v>
       </c>
       <c r="D320" t="n">
-        <v>6808379000000</v>
+        <v>6808405000000</v>
       </c>
       <c r="E320" t="n">
-        <v>6808379000000</v>
+        <v>6808405000000</v>
       </c>
       <c r="F320" t="n">
-        <v>6808379000000</v>
+        <v>6808405000000</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7965088000000</v>
+        <v>7965913000000</v>
       </c>
       <c r="D327" t="n">
-        <v>7965088000000</v>
+        <v>7965913000000</v>
       </c>
       <c r="E327" t="n">
-        <v>7965088000000</v>
+        <v>7965913000000</v>
       </c>
       <c r="F327" t="n">
-        <v>7965088000000</v>
+        <v>7965913000000</v>
       </c>
       <c r="G327" t="n">
         <v>0</v>
@@ -8661,18 +8661,43 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>8140535000000</v>
+        <v>8140532000000</v>
       </c>
       <c r="D329" t="n">
-        <v>8140535000000</v>
+        <v>8140532000000</v>
       </c>
       <c r="E329" t="n">
-        <v>8140535000000</v>
+        <v>8140532000000</v>
       </c>
       <c r="F329" t="n">
-        <v>8140535000000</v>
+        <v>8140532000000</v>
       </c>
       <c r="G329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>ECONOMICS:EGM2</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>8248190000000</v>
+      </c>
+      <c r="D330" t="n">
+        <v>8248190000000</v>
+      </c>
+      <c r="E330" t="n">
+        <v>8248190000000</v>
+      </c>
+      <c r="F330" t="n">
+        <v>8248190000000</v>
+      </c>
+      <c r="G330" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8701,6 +8701,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>ECONOMICS:EGM2</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>8343414000000</v>
+      </c>
+      <c r="D331" t="n">
+        <v>8343414000000</v>
+      </c>
+      <c r="E331" t="n">
+        <v>8343414000000</v>
+      </c>
+      <c r="F331" t="n">
+        <v>8343414000000</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ECONOMICS:EGM2</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>8467486000000</v>
+      </c>
+      <c r="D332" t="n">
+        <v>8467486000000</v>
+      </c>
+      <c r="E332" t="n">
+        <v>8467486000000</v>
+      </c>
+      <c r="F332" t="n">
+        <v>8467486000000</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ECONOMICS:EGM2</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>8551079000000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>8551079000000</v>
+      </c>
+      <c r="E333" t="n">
+        <v>8551079000000</v>
+      </c>
+      <c r="F333" t="n">
+        <v>8551079000000</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Egypt_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G333"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8066,6 +8066,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334">
+        <v>8682319000000</v>
+      </c>
+      <c r="D334">
+        <v>8682319000000</v>
+      </c>
+      <c r="E334">
+        <v>8682319000000</v>
+      </c>
+      <c r="F334">
+        <v>8682319000000</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
